--- a/E-Commerce_Store_Dashboard/ecommerce_store_pivots.xlsx
+++ b/E-Commerce_Store_Dashboard/ecommerce_store_pivots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchit Goel\Desktop\DSM_Dashboards_Github\Excel Pivot Dashboards\Excel_Pivot_Dashboards\E-Commerce_Store_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E19135-49C9-4AF7-B301-8B0086D207CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745392C5-FCB4-4FDD-B1CC-11CF6E50D7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1170,7 +1170,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1263,7 +1263,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1281,19 +1281,28 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1308,10 +1317,19 @@
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1320,28 +1338,10 @@
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1768,7 +1768,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2287,7 +2287,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2806,7 +2806,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3325,7 +3325,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5926,6 +5926,7 @@
               <a:latin typeface="+mj-lt"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t> 2,41,96,679 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1800">
@@ -6014,6 +6015,7 @@
               <a:latin typeface="+mj-lt"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t> 7,046.45 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1800">
@@ -6493,13 +6495,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>141964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>103864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6514,8 +6516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396240" y="331470"/>
-          <a:ext cx="1242060" cy="327660"/>
+          <a:off x="395577" y="327494"/>
+          <a:ext cx="1242060" cy="332961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6563,15 +6565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>318052</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>141964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>340912</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>103864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6586,8 +6588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="331470"/>
-          <a:ext cx="1242060" cy="327660"/>
+          <a:off x="2862469" y="327494"/>
+          <a:ext cx="1242060" cy="332961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6634,16 +6636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>375037</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>141964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>397897</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>103864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6658,8 +6660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5318760" y="331470"/>
-          <a:ext cx="1242060" cy="327660"/>
+          <a:off x="7796254" y="327494"/>
+          <a:ext cx="1242060" cy="332961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6706,16 +6708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>346544</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>141964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369404</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>103864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6730,8 +6732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7780020" y="331470"/>
-          <a:ext cx="1242060" cy="327660"/>
+          <a:off x="5329361" y="327494"/>
+          <a:ext cx="1242060" cy="332961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22289,7 +22291,949 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E532B96D-B353-4110-8738-DE0BF644DB2A}" name="PivotTable1" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D0451D5-BFA1-4009-AB86-DC1499A82FAF}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="J3:K16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="337">
+        <item x="247"/>
+        <item x="58"/>
+        <item x="328"/>
+        <item x="200"/>
+        <item x="109"/>
+        <item x="203"/>
+        <item x="293"/>
+        <item x="306"/>
+        <item x="85"/>
+        <item x="264"/>
+        <item x="271"/>
+        <item x="125"/>
+        <item x="46"/>
+        <item x="81"/>
+        <item x="265"/>
+        <item x="201"/>
+        <item x="209"/>
+        <item x="283"/>
+        <item x="227"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="262"/>
+        <item x="285"/>
+        <item x="222"/>
+        <item x="197"/>
+        <item x="94"/>
+        <item x="123"/>
+        <item x="322"/>
+        <item x="332"/>
+        <item x="98"/>
+        <item x="318"/>
+        <item x="54"/>
+        <item x="124"/>
+        <item x="182"/>
+        <item x="194"/>
+        <item x="173"/>
+        <item x="333"/>
+        <item x="79"/>
+        <item x="114"/>
+        <item x="270"/>
+        <item x="65"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="238"/>
+        <item x="99"/>
+        <item x="28"/>
+        <item x="57"/>
+        <item x="34"/>
+        <item x="118"/>
+        <item x="50"/>
+        <item x="59"/>
+        <item x="36"/>
+        <item x="327"/>
+        <item x="286"/>
+        <item x="212"/>
+        <item x="29"/>
+        <item x="179"/>
+        <item x="325"/>
+        <item x="100"/>
+        <item x="88"/>
+        <item x="83"/>
+        <item x="131"/>
+        <item x="331"/>
+        <item x="189"/>
+        <item x="252"/>
+        <item x="297"/>
+        <item x="4"/>
+        <item x="326"/>
+        <item x="292"/>
+        <item x="184"/>
+        <item x="254"/>
+        <item x="316"/>
+        <item x="303"/>
+        <item x="56"/>
+        <item x="309"/>
+        <item x="314"/>
+        <item x="282"/>
+        <item x="315"/>
+        <item x="129"/>
+        <item x="10"/>
+        <item x="44"/>
+        <item x="273"/>
+        <item x="299"/>
+        <item x="52"/>
+        <item x="274"/>
+        <item x="258"/>
+        <item x="206"/>
+        <item x="119"/>
+        <item x="166"/>
+        <item x="163"/>
+        <item x="103"/>
+        <item x="11"/>
+        <item x="107"/>
+        <item x="0"/>
+        <item x="185"/>
+        <item x="276"/>
+        <item x="60"/>
+        <item x="3"/>
+        <item x="134"/>
+        <item x="287"/>
+        <item x="324"/>
+        <item x="178"/>
+        <item x="150"/>
+        <item x="214"/>
+        <item x="275"/>
+        <item x="140"/>
+        <item x="245"/>
+        <item x="250"/>
+        <item x="312"/>
+        <item x="183"/>
+        <item x="139"/>
+        <item x="7"/>
+        <item x="161"/>
+        <item x="167"/>
+        <item x="233"/>
+        <item x="156"/>
+        <item x="217"/>
+        <item x="136"/>
+        <item x="86"/>
+        <item x="152"/>
+        <item x="14"/>
+        <item x="295"/>
+        <item x="288"/>
+        <item x="133"/>
+        <item x="40"/>
+        <item x="87"/>
+        <item x="144"/>
+        <item x="323"/>
+        <item x="89"/>
+        <item x="181"/>
+        <item x="294"/>
+        <item x="229"/>
+        <item x="121"/>
+        <item x="165"/>
+        <item x="241"/>
+        <item x="291"/>
+        <item x="170"/>
+        <item x="169"/>
+        <item x="302"/>
+        <item x="15"/>
+        <item x="175"/>
+        <item x="13"/>
+        <item x="186"/>
+        <item x="255"/>
+        <item x="218"/>
+        <item x="305"/>
+        <item x="80"/>
+        <item x="193"/>
+        <item x="126"/>
+        <item x="22"/>
+        <item x="66"/>
+        <item x="90"/>
+        <item x="278"/>
+        <item x="146"/>
+        <item x="321"/>
+        <item x="42"/>
+        <item x="268"/>
+        <item x="188"/>
+        <item x="30"/>
+        <item x="122"/>
+        <item x="104"/>
+        <item x="226"/>
+        <item x="213"/>
+        <item x="33"/>
+        <item x="191"/>
+        <item x="279"/>
+        <item x="267"/>
+        <item x="115"/>
+        <item x="149"/>
+        <item x="205"/>
+        <item x="298"/>
+        <item x="280"/>
+        <item x="160"/>
+        <item x="256"/>
+        <item x="232"/>
+        <item x="127"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="20"/>
+        <item x="187"/>
+        <item x="190"/>
+        <item x="235"/>
+        <item x="310"/>
+        <item x="143"/>
+        <item x="171"/>
+        <item x="95"/>
+        <item x="67"/>
+        <item x="159"/>
+        <item x="259"/>
+        <item x="317"/>
+        <item x="55"/>
+        <item x="113"/>
+        <item x="74"/>
+        <item x="308"/>
+        <item x="73"/>
+        <item x="105"/>
+        <item x="8"/>
+        <item x="101"/>
+        <item x="78"/>
+        <item x="64"/>
+        <item x="153"/>
+        <item x="289"/>
+        <item x="120"/>
+        <item x="211"/>
+        <item x="155"/>
+        <item x="138"/>
+        <item x="198"/>
+        <item x="106"/>
+        <item x="307"/>
+        <item x="244"/>
+        <item x="195"/>
+        <item x="93"/>
+        <item x="141"/>
+        <item x="147"/>
+        <item x="290"/>
+        <item x="26"/>
+        <item x="75"/>
+        <item x="192"/>
+        <item x="248"/>
+        <item x="164"/>
+        <item x="117"/>
+        <item x="47"/>
+        <item x="128"/>
+        <item x="37"/>
+        <item x="221"/>
+        <item x="157"/>
+        <item x="277"/>
+        <item x="263"/>
+        <item x="311"/>
+        <item x="71"/>
+        <item x="25"/>
+        <item x="180"/>
+        <item x="110"/>
+        <item x="207"/>
+        <item x="108"/>
+        <item x="17"/>
+        <item x="142"/>
+        <item x="61"/>
+        <item x="92"/>
+        <item x="236"/>
+        <item x="177"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="174"/>
+        <item x="97"/>
+        <item x="240"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item x="251"/>
+        <item x="219"/>
+        <item x="43"/>
+        <item x="243"/>
+        <item x="21"/>
+        <item x="253"/>
+        <item x="246"/>
+        <item x="77"/>
+        <item x="210"/>
+        <item x="313"/>
+        <item x="112"/>
+        <item x="130"/>
+        <item x="257"/>
+        <item x="135"/>
+        <item x="215"/>
+        <item x="91"/>
+        <item x="249"/>
+        <item x="296"/>
+        <item x="102"/>
+        <item x="19"/>
+        <item x="151"/>
+        <item x="72"/>
+        <item x="176"/>
+        <item x="220"/>
+        <item x="330"/>
+        <item x="82"/>
+        <item x="204"/>
+        <item x="301"/>
+        <item x="70"/>
+        <item x="234"/>
+        <item x="224"/>
+        <item x="39"/>
+        <item x="172"/>
+        <item x="16"/>
+        <item x="62"/>
+        <item x="239"/>
+        <item x="300"/>
+        <item x="225"/>
+        <item x="23"/>
+        <item x="148"/>
+        <item x="45"/>
+        <item x="199"/>
+        <item x="145"/>
+        <item x="242"/>
+        <item x="38"/>
+        <item x="228"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="158"/>
+        <item x="162"/>
+        <item x="168"/>
+        <item x="84"/>
+        <item x="96"/>
+        <item x="41"/>
+        <item x="269"/>
+        <item x="9"/>
+        <item x="335"/>
+        <item x="319"/>
+        <item x="266"/>
+        <item x="272"/>
+        <item x="76"/>
+        <item x="284"/>
+        <item x="51"/>
+        <item x="260"/>
+        <item x="216"/>
+        <item x="154"/>
+        <item x="18"/>
+        <item x="27"/>
+        <item x="49"/>
+        <item x="320"/>
+        <item x="137"/>
+        <item x="1"/>
+        <item x="237"/>
+        <item x="69"/>
+        <item x="116"/>
+        <item x="230"/>
+        <item x="223"/>
+        <item x="334"/>
+        <item x="261"/>
+        <item x="304"/>
+        <item x="111"/>
+        <item x="12"/>
+        <item x="281"/>
+        <item x="329"/>
+        <item x="35"/>
+        <item x="196"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item sd="0" x="5"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="9"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="3">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68EA8A12-7BBC-4AF1-BAB1-8DAD83384123}" name="PivotTable5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="M3:N16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="337">
+        <item x="247"/>
+        <item x="58"/>
+        <item x="328"/>
+        <item x="200"/>
+        <item x="109"/>
+        <item x="203"/>
+        <item x="293"/>
+        <item x="306"/>
+        <item x="85"/>
+        <item x="264"/>
+        <item x="271"/>
+        <item x="125"/>
+        <item x="46"/>
+        <item x="81"/>
+        <item x="265"/>
+        <item x="201"/>
+        <item x="209"/>
+        <item x="283"/>
+        <item x="227"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="262"/>
+        <item x="285"/>
+        <item x="222"/>
+        <item x="197"/>
+        <item x="94"/>
+        <item x="123"/>
+        <item x="322"/>
+        <item x="332"/>
+        <item x="98"/>
+        <item x="318"/>
+        <item x="54"/>
+        <item x="124"/>
+        <item x="182"/>
+        <item x="194"/>
+        <item x="173"/>
+        <item x="333"/>
+        <item x="79"/>
+        <item x="114"/>
+        <item x="270"/>
+        <item x="65"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="238"/>
+        <item x="99"/>
+        <item x="28"/>
+        <item x="57"/>
+        <item x="34"/>
+        <item x="118"/>
+        <item x="50"/>
+        <item x="59"/>
+        <item x="36"/>
+        <item x="327"/>
+        <item x="286"/>
+        <item x="212"/>
+        <item x="29"/>
+        <item x="179"/>
+        <item x="325"/>
+        <item x="100"/>
+        <item x="88"/>
+        <item x="83"/>
+        <item x="131"/>
+        <item x="331"/>
+        <item x="189"/>
+        <item x="252"/>
+        <item x="297"/>
+        <item x="4"/>
+        <item x="326"/>
+        <item x="292"/>
+        <item x="184"/>
+        <item x="254"/>
+        <item x="316"/>
+        <item x="303"/>
+        <item x="56"/>
+        <item x="309"/>
+        <item x="314"/>
+        <item x="282"/>
+        <item x="315"/>
+        <item x="129"/>
+        <item x="10"/>
+        <item x="44"/>
+        <item x="273"/>
+        <item x="299"/>
+        <item x="52"/>
+        <item x="274"/>
+        <item x="258"/>
+        <item x="206"/>
+        <item x="119"/>
+        <item x="166"/>
+        <item x="163"/>
+        <item x="103"/>
+        <item x="11"/>
+        <item x="107"/>
+        <item x="0"/>
+        <item x="185"/>
+        <item x="276"/>
+        <item x="60"/>
+        <item x="3"/>
+        <item x="134"/>
+        <item x="287"/>
+        <item x="324"/>
+        <item x="178"/>
+        <item x="150"/>
+        <item x="214"/>
+        <item x="275"/>
+        <item x="140"/>
+        <item x="245"/>
+        <item x="250"/>
+        <item x="312"/>
+        <item x="183"/>
+        <item x="139"/>
+        <item x="7"/>
+        <item x="161"/>
+        <item x="167"/>
+        <item x="233"/>
+        <item x="156"/>
+        <item x="217"/>
+        <item x="136"/>
+        <item x="86"/>
+        <item x="152"/>
+        <item x="14"/>
+        <item x="295"/>
+        <item x="288"/>
+        <item x="133"/>
+        <item x="40"/>
+        <item x="87"/>
+        <item x="144"/>
+        <item x="323"/>
+        <item x="89"/>
+        <item x="181"/>
+        <item x="294"/>
+        <item x="229"/>
+        <item x="121"/>
+        <item x="165"/>
+        <item x="241"/>
+        <item x="291"/>
+        <item x="170"/>
+        <item x="169"/>
+        <item x="302"/>
+        <item x="15"/>
+        <item x="175"/>
+        <item x="13"/>
+        <item x="186"/>
+        <item x="255"/>
+        <item x="218"/>
+        <item x="305"/>
+        <item x="80"/>
+        <item x="193"/>
+        <item x="126"/>
+        <item x="22"/>
+        <item x="66"/>
+        <item x="90"/>
+        <item x="278"/>
+        <item x="146"/>
+        <item x="321"/>
+        <item x="42"/>
+        <item x="268"/>
+        <item x="188"/>
+        <item x="30"/>
+        <item x="122"/>
+        <item x="104"/>
+        <item x="226"/>
+        <item x="213"/>
+        <item x="33"/>
+        <item x="191"/>
+        <item x="279"/>
+        <item x="267"/>
+        <item x="115"/>
+        <item x="149"/>
+        <item x="205"/>
+        <item x="298"/>
+        <item x="280"/>
+        <item x="160"/>
+        <item x="256"/>
+        <item x="232"/>
+        <item x="127"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="20"/>
+        <item x="187"/>
+        <item x="190"/>
+        <item x="235"/>
+        <item x="310"/>
+        <item x="143"/>
+        <item x="171"/>
+        <item x="95"/>
+        <item x="67"/>
+        <item x="159"/>
+        <item x="259"/>
+        <item x="317"/>
+        <item x="55"/>
+        <item x="113"/>
+        <item x="74"/>
+        <item x="308"/>
+        <item x="73"/>
+        <item x="105"/>
+        <item x="8"/>
+        <item x="101"/>
+        <item x="78"/>
+        <item x="64"/>
+        <item x="153"/>
+        <item x="289"/>
+        <item x="120"/>
+        <item x="211"/>
+        <item x="155"/>
+        <item x="138"/>
+        <item x="198"/>
+        <item x="106"/>
+        <item x="307"/>
+        <item x="244"/>
+        <item x="195"/>
+        <item x="93"/>
+        <item x="141"/>
+        <item x="147"/>
+        <item x="290"/>
+        <item x="26"/>
+        <item x="75"/>
+        <item x="192"/>
+        <item x="248"/>
+        <item x="164"/>
+        <item x="117"/>
+        <item x="47"/>
+        <item x="128"/>
+        <item x="37"/>
+        <item x="221"/>
+        <item x="157"/>
+        <item x="277"/>
+        <item x="263"/>
+        <item x="311"/>
+        <item x="71"/>
+        <item x="25"/>
+        <item x="180"/>
+        <item x="110"/>
+        <item x="207"/>
+        <item x="108"/>
+        <item x="17"/>
+        <item x="142"/>
+        <item x="61"/>
+        <item x="92"/>
+        <item x="236"/>
+        <item x="177"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="174"/>
+        <item x="97"/>
+        <item x="240"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item x="251"/>
+        <item x="219"/>
+        <item x="43"/>
+        <item x="243"/>
+        <item x="21"/>
+        <item x="253"/>
+        <item x="246"/>
+        <item x="77"/>
+        <item x="210"/>
+        <item x="313"/>
+        <item x="112"/>
+        <item x="130"/>
+        <item x="257"/>
+        <item x="135"/>
+        <item x="215"/>
+        <item x="91"/>
+        <item x="249"/>
+        <item x="296"/>
+        <item x="102"/>
+        <item x="19"/>
+        <item x="151"/>
+        <item x="72"/>
+        <item x="176"/>
+        <item x="220"/>
+        <item x="330"/>
+        <item x="82"/>
+        <item x="204"/>
+        <item x="301"/>
+        <item x="70"/>
+        <item x="234"/>
+        <item x="224"/>
+        <item x="39"/>
+        <item x="172"/>
+        <item x="16"/>
+        <item x="62"/>
+        <item x="239"/>
+        <item x="300"/>
+        <item x="225"/>
+        <item x="23"/>
+        <item x="148"/>
+        <item x="45"/>
+        <item x="199"/>
+        <item x="145"/>
+        <item x="242"/>
+        <item x="38"/>
+        <item x="228"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="158"/>
+        <item x="162"/>
+        <item x="168"/>
+        <item x="84"/>
+        <item x="96"/>
+        <item x="41"/>
+        <item x="269"/>
+        <item x="9"/>
+        <item x="335"/>
+        <item x="319"/>
+        <item x="266"/>
+        <item x="272"/>
+        <item x="76"/>
+        <item x="284"/>
+        <item x="51"/>
+        <item x="260"/>
+        <item x="216"/>
+        <item x="154"/>
+        <item x="18"/>
+        <item x="27"/>
+        <item x="49"/>
+        <item x="320"/>
+        <item x="137"/>
+        <item x="1"/>
+        <item x="237"/>
+        <item x="69"/>
+        <item x="116"/>
+        <item x="230"/>
+        <item x="223"/>
+        <item x="334"/>
+        <item x="261"/>
+        <item x="304"/>
+        <item x="111"/>
+        <item x="12"/>
+        <item x="281"/>
+        <item x="329"/>
+        <item x="35"/>
+        <item x="196"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item sd="0" x="5"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="9"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Net_Profit" fld="8" subtotal="average" baseField="9" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="7">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E532B96D-B353-4110-8738-DE0BF644DB2A}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -22330,7 +23274,7 @@
     <dataField name="Average of Net_Profit" fld="8" subtotal="average" baseField="0" baseItem="9"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -22339,7 +23283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -22348,7 +23292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -22379,8 +23323,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{946C0572-3066-4633-9857-67DDEB460805}" name="PivotTable2" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{946C0572-3066-4633-9857-67DDEB460805}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="D3:E16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -22801,7 +23745,7 @@
     <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="9" numFmtId="164"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="0">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -22810,20 +23754,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22859,8 +23803,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19F6B22C-762F-44B7-9D30-4DE804EF8A84}" name="PivotTable3" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19F6B22C-762F-44B7-9D30-4DE804EF8A84}" name="PivotTable3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="G3:H16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -23281,16 +24225,16 @@
     <dataField name="Average of Returns" fld="5" subtotal="average" baseField="9" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="9">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
@@ -23299,948 +24243,6 @@
     </format>
   </formats>
   <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D0451D5-BFA1-4009-AB86-DC1499A82FAF}" name="PivotTable4" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="J3:K16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="337">
-        <item x="247"/>
-        <item x="58"/>
-        <item x="328"/>
-        <item x="200"/>
-        <item x="109"/>
-        <item x="203"/>
-        <item x="293"/>
-        <item x="306"/>
-        <item x="85"/>
-        <item x="264"/>
-        <item x="271"/>
-        <item x="125"/>
-        <item x="46"/>
-        <item x="81"/>
-        <item x="265"/>
-        <item x="201"/>
-        <item x="209"/>
-        <item x="283"/>
-        <item x="227"/>
-        <item x="6"/>
-        <item x="24"/>
-        <item x="262"/>
-        <item x="285"/>
-        <item x="222"/>
-        <item x="197"/>
-        <item x="94"/>
-        <item x="123"/>
-        <item x="322"/>
-        <item x="332"/>
-        <item x="98"/>
-        <item x="318"/>
-        <item x="54"/>
-        <item x="124"/>
-        <item x="182"/>
-        <item x="194"/>
-        <item x="173"/>
-        <item x="333"/>
-        <item x="79"/>
-        <item x="114"/>
-        <item x="270"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="238"/>
-        <item x="99"/>
-        <item x="28"/>
-        <item x="57"/>
-        <item x="34"/>
-        <item x="118"/>
-        <item x="50"/>
-        <item x="59"/>
-        <item x="36"/>
-        <item x="327"/>
-        <item x="286"/>
-        <item x="212"/>
-        <item x="29"/>
-        <item x="179"/>
-        <item x="325"/>
-        <item x="100"/>
-        <item x="88"/>
-        <item x="83"/>
-        <item x="131"/>
-        <item x="331"/>
-        <item x="189"/>
-        <item x="252"/>
-        <item x="297"/>
-        <item x="4"/>
-        <item x="326"/>
-        <item x="292"/>
-        <item x="184"/>
-        <item x="254"/>
-        <item x="316"/>
-        <item x="303"/>
-        <item x="56"/>
-        <item x="309"/>
-        <item x="314"/>
-        <item x="282"/>
-        <item x="315"/>
-        <item x="129"/>
-        <item x="10"/>
-        <item x="44"/>
-        <item x="273"/>
-        <item x="299"/>
-        <item x="52"/>
-        <item x="274"/>
-        <item x="258"/>
-        <item x="206"/>
-        <item x="119"/>
-        <item x="166"/>
-        <item x="163"/>
-        <item x="103"/>
-        <item x="11"/>
-        <item x="107"/>
-        <item x="0"/>
-        <item x="185"/>
-        <item x="276"/>
-        <item x="60"/>
-        <item x="3"/>
-        <item x="134"/>
-        <item x="287"/>
-        <item x="324"/>
-        <item x="178"/>
-        <item x="150"/>
-        <item x="214"/>
-        <item x="275"/>
-        <item x="140"/>
-        <item x="245"/>
-        <item x="250"/>
-        <item x="312"/>
-        <item x="183"/>
-        <item x="139"/>
-        <item x="7"/>
-        <item x="161"/>
-        <item x="167"/>
-        <item x="233"/>
-        <item x="156"/>
-        <item x="217"/>
-        <item x="136"/>
-        <item x="86"/>
-        <item x="152"/>
-        <item x="14"/>
-        <item x="295"/>
-        <item x="288"/>
-        <item x="133"/>
-        <item x="40"/>
-        <item x="87"/>
-        <item x="144"/>
-        <item x="323"/>
-        <item x="89"/>
-        <item x="181"/>
-        <item x="294"/>
-        <item x="229"/>
-        <item x="121"/>
-        <item x="165"/>
-        <item x="241"/>
-        <item x="291"/>
-        <item x="170"/>
-        <item x="169"/>
-        <item x="302"/>
-        <item x="15"/>
-        <item x="175"/>
-        <item x="13"/>
-        <item x="186"/>
-        <item x="255"/>
-        <item x="218"/>
-        <item x="305"/>
-        <item x="80"/>
-        <item x="193"/>
-        <item x="126"/>
-        <item x="22"/>
-        <item x="66"/>
-        <item x="90"/>
-        <item x="278"/>
-        <item x="146"/>
-        <item x="321"/>
-        <item x="42"/>
-        <item x="268"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="122"/>
-        <item x="104"/>
-        <item x="226"/>
-        <item x="213"/>
-        <item x="33"/>
-        <item x="191"/>
-        <item x="279"/>
-        <item x="267"/>
-        <item x="115"/>
-        <item x="149"/>
-        <item x="205"/>
-        <item x="298"/>
-        <item x="280"/>
-        <item x="160"/>
-        <item x="256"/>
-        <item x="232"/>
-        <item x="127"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="32"/>
-        <item x="63"/>
-        <item x="20"/>
-        <item x="187"/>
-        <item x="190"/>
-        <item x="235"/>
-        <item x="310"/>
-        <item x="143"/>
-        <item x="171"/>
-        <item x="95"/>
-        <item x="67"/>
-        <item x="159"/>
-        <item x="259"/>
-        <item x="317"/>
-        <item x="55"/>
-        <item x="113"/>
-        <item x="74"/>
-        <item x="308"/>
-        <item x="73"/>
-        <item x="105"/>
-        <item x="8"/>
-        <item x="101"/>
-        <item x="78"/>
-        <item x="64"/>
-        <item x="153"/>
-        <item x="289"/>
-        <item x="120"/>
-        <item x="211"/>
-        <item x="155"/>
-        <item x="138"/>
-        <item x="198"/>
-        <item x="106"/>
-        <item x="307"/>
-        <item x="244"/>
-        <item x="195"/>
-        <item x="93"/>
-        <item x="141"/>
-        <item x="147"/>
-        <item x="290"/>
-        <item x="26"/>
-        <item x="75"/>
-        <item x="192"/>
-        <item x="248"/>
-        <item x="164"/>
-        <item x="117"/>
-        <item x="47"/>
-        <item x="128"/>
-        <item x="37"/>
-        <item x="221"/>
-        <item x="157"/>
-        <item x="277"/>
-        <item x="263"/>
-        <item x="311"/>
-        <item x="71"/>
-        <item x="25"/>
-        <item x="180"/>
-        <item x="110"/>
-        <item x="207"/>
-        <item x="108"/>
-        <item x="17"/>
-        <item x="142"/>
-        <item x="61"/>
-        <item x="92"/>
-        <item x="236"/>
-        <item x="177"/>
-        <item x="53"/>
-        <item x="48"/>
-        <item x="174"/>
-        <item x="97"/>
-        <item x="240"/>
-        <item x="68"/>
-        <item x="2"/>
-        <item x="251"/>
-        <item x="219"/>
-        <item x="43"/>
-        <item x="243"/>
-        <item x="21"/>
-        <item x="253"/>
-        <item x="246"/>
-        <item x="77"/>
-        <item x="210"/>
-        <item x="313"/>
-        <item x="112"/>
-        <item x="130"/>
-        <item x="257"/>
-        <item x="135"/>
-        <item x="215"/>
-        <item x="91"/>
-        <item x="249"/>
-        <item x="296"/>
-        <item x="102"/>
-        <item x="19"/>
-        <item x="151"/>
-        <item x="72"/>
-        <item x="176"/>
-        <item x="220"/>
-        <item x="330"/>
-        <item x="82"/>
-        <item x="204"/>
-        <item x="301"/>
-        <item x="70"/>
-        <item x="234"/>
-        <item x="224"/>
-        <item x="39"/>
-        <item x="172"/>
-        <item x="16"/>
-        <item x="62"/>
-        <item x="239"/>
-        <item x="300"/>
-        <item x="225"/>
-        <item x="23"/>
-        <item x="148"/>
-        <item x="45"/>
-        <item x="199"/>
-        <item x="145"/>
-        <item x="242"/>
-        <item x="38"/>
-        <item x="228"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="158"/>
-        <item x="162"/>
-        <item x="168"/>
-        <item x="84"/>
-        <item x="96"/>
-        <item x="41"/>
-        <item x="269"/>
-        <item x="9"/>
-        <item x="335"/>
-        <item x="319"/>
-        <item x="266"/>
-        <item x="272"/>
-        <item x="76"/>
-        <item x="284"/>
-        <item x="51"/>
-        <item x="260"/>
-        <item x="216"/>
-        <item x="154"/>
-        <item x="18"/>
-        <item x="27"/>
-        <item x="49"/>
-        <item x="320"/>
-        <item x="137"/>
-        <item x="1"/>
-        <item x="237"/>
-        <item x="69"/>
-        <item x="116"/>
-        <item x="230"/>
-        <item x="223"/>
-        <item x="334"/>
-        <item x="261"/>
-        <item x="304"/>
-        <item x="111"/>
-        <item x="12"/>
-        <item x="281"/>
-        <item x="329"/>
-        <item x="35"/>
-        <item x="196"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item sd="0" x="5"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="9"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="13">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68EA8A12-7BBC-4AF1-BAB1-8DAD83384123}" name="PivotTable5" cacheId="12" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="M3:N16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="337">
-        <item x="247"/>
-        <item x="58"/>
-        <item x="328"/>
-        <item x="200"/>
-        <item x="109"/>
-        <item x="203"/>
-        <item x="293"/>
-        <item x="306"/>
-        <item x="85"/>
-        <item x="264"/>
-        <item x="271"/>
-        <item x="125"/>
-        <item x="46"/>
-        <item x="81"/>
-        <item x="265"/>
-        <item x="201"/>
-        <item x="209"/>
-        <item x="283"/>
-        <item x="227"/>
-        <item x="6"/>
-        <item x="24"/>
-        <item x="262"/>
-        <item x="285"/>
-        <item x="222"/>
-        <item x="197"/>
-        <item x="94"/>
-        <item x="123"/>
-        <item x="322"/>
-        <item x="332"/>
-        <item x="98"/>
-        <item x="318"/>
-        <item x="54"/>
-        <item x="124"/>
-        <item x="182"/>
-        <item x="194"/>
-        <item x="173"/>
-        <item x="333"/>
-        <item x="79"/>
-        <item x="114"/>
-        <item x="270"/>
-        <item x="65"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="238"/>
-        <item x="99"/>
-        <item x="28"/>
-        <item x="57"/>
-        <item x="34"/>
-        <item x="118"/>
-        <item x="50"/>
-        <item x="59"/>
-        <item x="36"/>
-        <item x="327"/>
-        <item x="286"/>
-        <item x="212"/>
-        <item x="29"/>
-        <item x="179"/>
-        <item x="325"/>
-        <item x="100"/>
-        <item x="88"/>
-        <item x="83"/>
-        <item x="131"/>
-        <item x="331"/>
-        <item x="189"/>
-        <item x="252"/>
-        <item x="297"/>
-        <item x="4"/>
-        <item x="326"/>
-        <item x="292"/>
-        <item x="184"/>
-        <item x="254"/>
-        <item x="316"/>
-        <item x="303"/>
-        <item x="56"/>
-        <item x="309"/>
-        <item x="314"/>
-        <item x="282"/>
-        <item x="315"/>
-        <item x="129"/>
-        <item x="10"/>
-        <item x="44"/>
-        <item x="273"/>
-        <item x="299"/>
-        <item x="52"/>
-        <item x="274"/>
-        <item x="258"/>
-        <item x="206"/>
-        <item x="119"/>
-        <item x="166"/>
-        <item x="163"/>
-        <item x="103"/>
-        <item x="11"/>
-        <item x="107"/>
-        <item x="0"/>
-        <item x="185"/>
-        <item x="276"/>
-        <item x="60"/>
-        <item x="3"/>
-        <item x="134"/>
-        <item x="287"/>
-        <item x="324"/>
-        <item x="178"/>
-        <item x="150"/>
-        <item x="214"/>
-        <item x="275"/>
-        <item x="140"/>
-        <item x="245"/>
-        <item x="250"/>
-        <item x="312"/>
-        <item x="183"/>
-        <item x="139"/>
-        <item x="7"/>
-        <item x="161"/>
-        <item x="167"/>
-        <item x="233"/>
-        <item x="156"/>
-        <item x="217"/>
-        <item x="136"/>
-        <item x="86"/>
-        <item x="152"/>
-        <item x="14"/>
-        <item x="295"/>
-        <item x="288"/>
-        <item x="133"/>
-        <item x="40"/>
-        <item x="87"/>
-        <item x="144"/>
-        <item x="323"/>
-        <item x="89"/>
-        <item x="181"/>
-        <item x="294"/>
-        <item x="229"/>
-        <item x="121"/>
-        <item x="165"/>
-        <item x="241"/>
-        <item x="291"/>
-        <item x="170"/>
-        <item x="169"/>
-        <item x="302"/>
-        <item x="15"/>
-        <item x="175"/>
-        <item x="13"/>
-        <item x="186"/>
-        <item x="255"/>
-        <item x="218"/>
-        <item x="305"/>
-        <item x="80"/>
-        <item x="193"/>
-        <item x="126"/>
-        <item x="22"/>
-        <item x="66"/>
-        <item x="90"/>
-        <item x="278"/>
-        <item x="146"/>
-        <item x="321"/>
-        <item x="42"/>
-        <item x="268"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="122"/>
-        <item x="104"/>
-        <item x="226"/>
-        <item x="213"/>
-        <item x="33"/>
-        <item x="191"/>
-        <item x="279"/>
-        <item x="267"/>
-        <item x="115"/>
-        <item x="149"/>
-        <item x="205"/>
-        <item x="298"/>
-        <item x="280"/>
-        <item x="160"/>
-        <item x="256"/>
-        <item x="232"/>
-        <item x="127"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="32"/>
-        <item x="63"/>
-        <item x="20"/>
-        <item x="187"/>
-        <item x="190"/>
-        <item x="235"/>
-        <item x="310"/>
-        <item x="143"/>
-        <item x="171"/>
-        <item x="95"/>
-        <item x="67"/>
-        <item x="159"/>
-        <item x="259"/>
-        <item x="317"/>
-        <item x="55"/>
-        <item x="113"/>
-        <item x="74"/>
-        <item x="308"/>
-        <item x="73"/>
-        <item x="105"/>
-        <item x="8"/>
-        <item x="101"/>
-        <item x="78"/>
-        <item x="64"/>
-        <item x="153"/>
-        <item x="289"/>
-        <item x="120"/>
-        <item x="211"/>
-        <item x="155"/>
-        <item x="138"/>
-        <item x="198"/>
-        <item x="106"/>
-        <item x="307"/>
-        <item x="244"/>
-        <item x="195"/>
-        <item x="93"/>
-        <item x="141"/>
-        <item x="147"/>
-        <item x="290"/>
-        <item x="26"/>
-        <item x="75"/>
-        <item x="192"/>
-        <item x="248"/>
-        <item x="164"/>
-        <item x="117"/>
-        <item x="47"/>
-        <item x="128"/>
-        <item x="37"/>
-        <item x="221"/>
-        <item x="157"/>
-        <item x="277"/>
-        <item x="263"/>
-        <item x="311"/>
-        <item x="71"/>
-        <item x="25"/>
-        <item x="180"/>
-        <item x="110"/>
-        <item x="207"/>
-        <item x="108"/>
-        <item x="17"/>
-        <item x="142"/>
-        <item x="61"/>
-        <item x="92"/>
-        <item x="236"/>
-        <item x="177"/>
-        <item x="53"/>
-        <item x="48"/>
-        <item x="174"/>
-        <item x="97"/>
-        <item x="240"/>
-        <item x="68"/>
-        <item x="2"/>
-        <item x="251"/>
-        <item x="219"/>
-        <item x="43"/>
-        <item x="243"/>
-        <item x="21"/>
-        <item x="253"/>
-        <item x="246"/>
-        <item x="77"/>
-        <item x="210"/>
-        <item x="313"/>
-        <item x="112"/>
-        <item x="130"/>
-        <item x="257"/>
-        <item x="135"/>
-        <item x="215"/>
-        <item x="91"/>
-        <item x="249"/>
-        <item x="296"/>
-        <item x="102"/>
-        <item x="19"/>
-        <item x="151"/>
-        <item x="72"/>
-        <item x="176"/>
-        <item x="220"/>
-        <item x="330"/>
-        <item x="82"/>
-        <item x="204"/>
-        <item x="301"/>
-        <item x="70"/>
-        <item x="234"/>
-        <item x="224"/>
-        <item x="39"/>
-        <item x="172"/>
-        <item x="16"/>
-        <item x="62"/>
-        <item x="239"/>
-        <item x="300"/>
-        <item x="225"/>
-        <item x="23"/>
-        <item x="148"/>
-        <item x="45"/>
-        <item x="199"/>
-        <item x="145"/>
-        <item x="242"/>
-        <item x="38"/>
-        <item x="228"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="158"/>
-        <item x="162"/>
-        <item x="168"/>
-        <item x="84"/>
-        <item x="96"/>
-        <item x="41"/>
-        <item x="269"/>
-        <item x="9"/>
-        <item x="335"/>
-        <item x="319"/>
-        <item x="266"/>
-        <item x="272"/>
-        <item x="76"/>
-        <item x="284"/>
-        <item x="51"/>
-        <item x="260"/>
-        <item x="216"/>
-        <item x="154"/>
-        <item x="18"/>
-        <item x="27"/>
-        <item x="49"/>
-        <item x="320"/>
-        <item x="137"/>
-        <item x="1"/>
-        <item x="237"/>
-        <item x="69"/>
-        <item x="116"/>
-        <item x="230"/>
-        <item x="223"/>
-        <item x="334"/>
-        <item x="261"/>
-        <item x="304"/>
-        <item x="111"/>
-        <item x="12"/>
-        <item x="281"/>
-        <item x="329"/>
-        <item x="35"/>
-        <item x="196"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item sd="0" x="5"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="9"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Net_Profit" fld="8" subtotal="average" baseField="9" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="17">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -58072,7 +58074,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
